--- a/data/trans_orig/P19C07-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>11636</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6236</v>
+        <v>5554</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19929</v>
+        <v>19498</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03012192719646532</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01614235712074646</v>
+        <v>0.01437738271792474</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05158802606138428</v>
+        <v>0.05047446510746663</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>3893</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>968</v>
+        <v>1016</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9818</v>
+        <v>9707</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01451135526403703</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00360685866767596</v>
+        <v>0.003788102995711716</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03659539158260047</v>
+        <v>0.03618053686387802</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -786,19 +786,19 @@
         <v>15529</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8822</v>
+        <v>9092</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24657</v>
+        <v>25555</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02372384480354308</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01347768431534135</v>
+        <v>0.01388886317633405</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03766784445124512</v>
+        <v>0.03903941058586231</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>374666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>366373</v>
+        <v>366804</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>380066</v>
+        <v>380748</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9698780728035347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9484119739386158</v>
+        <v>0.9495255348925334</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9838576428792536</v>
+        <v>0.9856226172820753</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>258</v>
@@ -836,19 +836,19 @@
         <v>264394</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>258469</v>
+        <v>258580</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>267319</v>
+        <v>267271</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.985488644735963</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9634046084173988</v>
+        <v>0.963819463136122</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.996393141332324</v>
+        <v>0.9962118970042882</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>616</v>
@@ -857,19 +857,19 @@
         <v>639061</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>629933</v>
+        <v>629035</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>645768</v>
+        <v>645498</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9762761551964569</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9623321555487545</v>
+        <v>0.9609605894141371</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9865223156846585</v>
+        <v>0.9861111368236658</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>10568</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5110</v>
+        <v>5278</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17704</v>
+        <v>19183</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03520307546919674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01702263210016854</v>
+        <v>0.01758084623631343</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05897153064434193</v>
+        <v>0.06389824325199496</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -982,19 +982,19 @@
         <v>15595</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9631</v>
+        <v>9664</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24937</v>
+        <v>24751</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04675181749336844</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02887357848437635</v>
+        <v>0.02897068688501636</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07475864092060648</v>
+        <v>0.07420037073032124</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -1003,19 +1003,19 @@
         <v>26163</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17451</v>
+        <v>17793</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37798</v>
+        <v>38205</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04128138701877558</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02753526852124167</v>
+        <v>0.02807511902690923</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05964011784704681</v>
+        <v>0.06028216872254538</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>289637</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>282501</v>
+        <v>281022</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>295095</v>
+        <v>294927</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9647969245308032</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9410284693556588</v>
+        <v>0.9361017567480046</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9829773678998319</v>
+        <v>0.9824191537636862</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>309</v>
@@ -1053,19 +1053,19 @@
         <v>317970</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>308628</v>
+        <v>308814</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>323934</v>
+        <v>323901</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9532481825066316</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9252413590793928</v>
+        <v>0.9257996292696783</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9711264215156237</v>
+        <v>0.9710293131149831</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>581</v>
@@ -1074,19 +1074,19 @@
         <v>607607</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>595972</v>
+        <v>595565</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>616319</v>
+        <v>615977</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9587186129812244</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9403598821529532</v>
+        <v>0.9397178312774521</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.972464731478758</v>
+        <v>0.9719248809730899</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>17785</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10861</v>
+        <v>10660</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26642</v>
+        <v>26501</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04133585937973983</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02524320761188402</v>
+        <v>0.02477574881558764</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06191938977498385</v>
+        <v>0.06159216447519914</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1199,19 +1199,19 @@
         <v>3099</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8600</v>
+        <v>8096</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02212577031922923</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006911847637793731</v>
+        <v>0.006754876436862757</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06140207002599013</v>
+        <v>0.05780303459414306</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1220,19 +1220,19 @@
         <v>20885</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13704</v>
+        <v>13945</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31593</v>
+        <v>30631</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03661806954138627</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02402866168115082</v>
+        <v>0.0244513203875621</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05539370653346854</v>
+        <v>0.05370751655604461</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>412482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>403625</v>
+        <v>403766</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>419406</v>
+        <v>419607</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9586641406202602</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.938080610225016</v>
+        <v>0.9384078355248009</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.974756792388116</v>
+        <v>0.9752242511844125</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>136</v>
@@ -1270,19 +1270,19 @@
         <v>136969</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>131468</v>
+        <v>131972</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>139100</v>
+        <v>139122</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9778742296807708</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.93859792997401</v>
+        <v>0.9421969654058566</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9930881523622063</v>
+        <v>0.9932451235631372</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>541</v>
@@ -1291,19 +1291,19 @@
         <v>549450</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>538742</v>
+        <v>539704</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>556631</v>
+        <v>556390</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9633819304586138</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9446062934665314</v>
+        <v>0.9462924834439554</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9759713383188492</v>
+        <v>0.975548679612438</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>25310</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17317</v>
+        <v>16056</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38129</v>
+        <v>36170</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02904356211998988</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01987190461336757</v>
+        <v>0.01842438317389034</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04375279060512569</v>
+        <v>0.04150538161692306</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1416,19 +1416,19 @@
         <v>22614</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14478</v>
+        <v>15049</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32907</v>
+        <v>33888</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03792707911487551</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02428244417961182</v>
+        <v>0.02523963075981589</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05519034844970928</v>
+        <v>0.05683602945962767</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -1437,19 +1437,19 @@
         <v>47924</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35974</v>
+        <v>34301</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66114</v>
+        <v>61873</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03265245789915405</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02451029064421159</v>
+        <v>0.02337024703778266</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04504611903986097</v>
+        <v>0.04215650915795925</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>846144</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>833325</v>
+        <v>835284</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>854137</v>
+        <v>855398</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9709564378800101</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9562472093948741</v>
+        <v>0.9584946183830769</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9801280953866324</v>
+        <v>0.9815756168261093</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>557</v>
@@ -1487,19 +1487,19 @@
         <v>573635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>563342</v>
+        <v>562361</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>581771</v>
+        <v>581200</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9620729208851245</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9448096515502907</v>
+        <v>0.9431639705403717</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9757175558203882</v>
+        <v>0.9747603692401839</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1398</v>
@@ -1508,19 +1508,19 @@
         <v>1419778</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1401588</v>
+        <v>1405829</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1431728</v>
+        <v>1433401</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9673475421008459</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.954953880960139</v>
+        <v>0.9578434908420407</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9754897093557883</v>
+        <v>0.9766297529622173</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>8844</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4670</v>
+        <v>4612</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15754</v>
+        <v>15932</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0356709188864529</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01883706221713096</v>
+        <v>0.01860200807769277</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06354490273257368</v>
+        <v>0.06426187420691107</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1633,19 +1633,19 @@
         <v>20158</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11948</v>
+        <v>12338</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30391</v>
+        <v>30599</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04419848962599299</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02619770402076842</v>
+        <v>0.02705210646855993</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0666357958846647</v>
+        <v>0.06709086647412382</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -1654,19 +1654,19 @@
         <v>29002</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18923</v>
+        <v>19849</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41050</v>
+        <v>42023</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04119537129043869</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02687876227498687</v>
+        <v>0.02819385639254929</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05830928920825108</v>
+        <v>0.05969067269287306</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>239083</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>232173</v>
+        <v>231995</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>243257</v>
+        <v>243315</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9643290811135471</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9364550972674263</v>
+        <v>0.9357381257930888</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9811629377828689</v>
+        <v>0.981397991922307</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>414</v>
@@ -1704,19 +1704,19 @@
         <v>435922</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>425689</v>
+        <v>425481</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>444132</v>
+        <v>443742</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.955801510374007</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9333642041153353</v>
+        <v>0.9329091335258763</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9738022959792316</v>
+        <v>0.9729478935314401</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>646</v>
@@ -1725,19 +1725,19 @@
         <v>675005</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>662957</v>
+        <v>661984</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>685084</v>
+        <v>684158</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9588046287095613</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9416907107917489</v>
+        <v>0.9403093273071269</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.973121237725013</v>
+        <v>0.9718061436074507</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>10177</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5210</v>
+        <v>5371</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17681</v>
+        <v>18110</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04795368118425223</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02454880077324011</v>
+        <v>0.02530747341616595</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08330783278719242</v>
+        <v>0.08533190502010662</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -1850,19 +1850,19 @@
         <v>29732</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21279</v>
+        <v>20454</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42057</v>
+        <v>41734</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03144219304188352</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0225029676800006</v>
+        <v>0.02163020463691409</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04447547119507655</v>
+        <v>0.04413453491632274</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -1871,19 +1871,19 @@
         <v>39910</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29750</v>
+        <v>29726</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53037</v>
+        <v>53667</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0344687429516145</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02569387332463681</v>
+        <v>0.02567341548383572</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04580613540860247</v>
+        <v>0.04635098454183562</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>202056</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194552</v>
+        <v>194123</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>207023</v>
+        <v>206862</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9520463188157477</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9166921672128077</v>
+        <v>0.9146680949798934</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9754511992267599</v>
+        <v>0.9746925265838341</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>909</v>
@@ -1921,19 +1921,19 @@
         <v>915884</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>903559</v>
+        <v>903882</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>924337</v>
+        <v>925162</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9685578069581164</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9555245288049234</v>
+        <v>0.9558654650836773</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9774970323199994</v>
+        <v>0.9783697953630859</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1117</v>
@@ -1942,19 +1942,19 @@
         <v>1117939</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1104812</v>
+        <v>1104182</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1128099</v>
+        <v>1128123</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9655312570483855</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9541938645913975</v>
+        <v>0.9536490154581643</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9743061266753632</v>
+        <v>0.9743265845161643</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>84321</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>65413</v>
+        <v>66785</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>102747</v>
+        <v>103422</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03443940370040693</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02671661227866141</v>
+        <v>0.02727732898372462</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04196535671408823</v>
+        <v>0.04224080309806467</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>95</v>
@@ -2067,19 +2067,19 @@
         <v>95091</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>77546</v>
+        <v>76954</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>114083</v>
+        <v>113990</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03470658016796931</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02830290483679497</v>
+        <v>0.02808672560210532</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04163834030126475</v>
+        <v>0.04160442085174273</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>179</v>
@@ -2088,19 +2088,19 @@
         <v>179412</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>155065</v>
+        <v>154345</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>205372</v>
+        <v>206560</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03458049690605762</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02988767087917152</v>
+        <v>0.02974893548094096</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0395840434049738</v>
+        <v>0.03981299868362032</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2364067</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2345641</v>
+        <v>2344966</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2382975</v>
+        <v>2381603</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9655605962995931</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.958034643285912</v>
+        <v>0.9577591969019353</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9732833877213386</v>
+        <v>0.9727226710162757</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2583</v>
@@ -2138,19 +2138,19 @@
         <v>2644773</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2625781</v>
+        <v>2625874</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2662318</v>
+        <v>2662910</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9652934198320307</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9583616596987349</v>
+        <v>0.9583955791482573</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9716970951632048</v>
+        <v>0.9719132743978948</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4899</v>
@@ -2159,19 +2159,19 @@
         <v>5008840</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4982880</v>
+        <v>4981692</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5033187</v>
+        <v>5033907</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9654195030939424</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9604159565950263</v>
+        <v>0.960187001316379</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9701123291208286</v>
+        <v>0.9702510645190588</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>13221</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6837</v>
+        <v>6906</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24511</v>
+        <v>23964</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03344051018222253</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01729493707769401</v>
+        <v>0.0174675672609758</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06199894399247731</v>
+        <v>0.06061625824315732</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -2526,19 +2526,19 @@
         <v>15717</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8556</v>
+        <v>8751</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26897</v>
+        <v>26445</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05346590809330672</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02910813436515664</v>
+        <v>0.02976943796579018</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09150076217097812</v>
+        <v>0.08996441744539475</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -2547,19 +2547,19 @@
         <v>28937</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18622</v>
+        <v>18734</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42817</v>
+        <v>43325</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04198042734506981</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02701631740562059</v>
+        <v>0.02717854593587836</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06211720625777634</v>
+        <v>0.06285409982094281</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>382123</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>370833</v>
+        <v>371380</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>388507</v>
+        <v>388438</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9665594898177775</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9380010560075228</v>
+        <v>0.9393837417568427</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.982705062922306</v>
+        <v>0.9825324327390241</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>252</v>
@@ -2597,19 +2597,19 @@
         <v>278237</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>267057</v>
+        <v>267509</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>285398</v>
+        <v>285203</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9465340919066932</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9084992378290219</v>
+        <v>0.9100355825546051</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9708918656348434</v>
+        <v>0.9702305620342098</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>606</v>
@@ -2618,19 +2618,19 @@
         <v>660362</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>646482</v>
+        <v>645974</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>670677</v>
+        <v>670565</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9580195726549302</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9378827937422236</v>
+        <v>0.9371459001790571</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9729836825943794</v>
+        <v>0.9728214540641216</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>4983</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10163</v>
+        <v>11212</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01298582723644173</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004964550492474455</v>
+        <v>0.004974390852483307</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02648456003352958</v>
+        <v>0.02921900665209635</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -2743,19 +2743,19 @@
         <v>5944</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12061</v>
+        <v>12014</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01895978002510074</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00642793318497106</v>
+        <v>0.0065549341635532</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03847260577976053</v>
+        <v>0.03832082010989973</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -2764,19 +2764,19 @@
         <v>10927</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5733</v>
+        <v>5907</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18656</v>
+        <v>18991</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01567196104004789</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008222333738141092</v>
+        <v>0.00847235209175316</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02675793595764807</v>
+        <v>0.02723781102216025</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>378741</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>373561</v>
+        <v>372512</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>381819</v>
+        <v>381815</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9870141727635583</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9735154399664705</v>
+        <v>0.9707809933479035</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9950354495075255</v>
+        <v>0.9950256091475167</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>276</v>
@@ -2814,19 +2814,19 @@
         <v>307557</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>301440</v>
+        <v>301487</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>311486</v>
+        <v>311446</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9810402199748992</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9615273942202398</v>
+        <v>0.9616791798901003</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.993572066815029</v>
+        <v>0.9934450658364469</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>614</v>
@@ -2835,19 +2835,19 @@
         <v>686298</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>678569</v>
+        <v>678234</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>691492</v>
+        <v>691318</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9843280389599521</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9732420640423519</v>
+        <v>0.9727621889778397</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9917776662618589</v>
+        <v>0.9915276479082469</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>16530</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9865</v>
+        <v>9947</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28081</v>
+        <v>26587</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03086940807518413</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01842321641674513</v>
+        <v>0.01857486215452199</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05243981115257851</v>
+        <v>0.04964929118740798</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -2960,19 +2960,19 @@
         <v>7004</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2976</v>
+        <v>3021</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14292</v>
+        <v>14811</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02910452427596054</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01236530588374569</v>
+        <v>0.01255202907419359</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05938586643297381</v>
+        <v>0.0615423961572593</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -2981,19 +2981,19 @@
         <v>23535</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15231</v>
+        <v>14855</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35132</v>
+        <v>35170</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03032216215828892</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01962433021134522</v>
+        <v>0.01913951383985401</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04526417971962755</v>
+        <v>0.04531338757016191</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>518958</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>507407</v>
+        <v>508901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>525623</v>
+        <v>525541</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9691305919248159</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9475601888474215</v>
+        <v>0.950350708812592</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9815767835832548</v>
+        <v>0.981425137845478</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>219</v>
@@ -3031,19 +3031,19 @@
         <v>233662</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>226374</v>
+        <v>225855</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>237690</v>
+        <v>237645</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9708954757240394</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9406141335670264</v>
+        <v>0.9384576038427408</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9876346941162543</v>
+        <v>0.9874479709258064</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>710</v>
@@ -3052,19 +3052,19 @@
         <v>752618</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>741021</v>
+        <v>740983</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>760922</v>
+        <v>761298</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9696778378417111</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9547358202803722</v>
+        <v>0.9546866124298381</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9803756697886548</v>
+        <v>0.9808604861601461</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>26647</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16749</v>
+        <v>17615</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40294</v>
+        <v>39726</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02739450318379195</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.017218515590674</v>
+        <v>0.01810845975799407</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04142319838105939</v>
+        <v>0.04083947010529806</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -3177,19 +3177,19 @@
         <v>28855</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18697</v>
+        <v>18618</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40356</v>
+        <v>40188</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04128407569828809</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02675050507945697</v>
+        <v>0.02663772883250521</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05773929658705624</v>
+        <v>0.05749925298201183</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -3198,19 +3198,19 @@
         <v>55502</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42604</v>
+        <v>42726</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73530</v>
+        <v>73984</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0332017991039275</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02548607882246891</v>
+        <v>0.02555913603665931</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04398604091931386</v>
+        <v>0.04425767625764181</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>946082</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>932435</v>
+        <v>933003</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>955980</v>
+        <v>955114</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.972605496816208</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9585768016189405</v>
+        <v>0.9591605298947019</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.982781484409326</v>
+        <v>0.981891540242006</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>620</v>
@@ -3248,19 +3248,19 @@
         <v>670072</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>658571</v>
+        <v>658739</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>680230</v>
+        <v>680309</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9587159243017119</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9422607034129437</v>
+        <v>0.942500747017988</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.973249494920543</v>
+        <v>0.9733622711674945</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1509</v>
@@ -3269,19 +3269,19 @@
         <v>1616154</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1598126</v>
+        <v>1597672</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1629052</v>
+        <v>1628930</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9667982008960725</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9560139590806861</v>
+        <v>0.9557423237423581</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9745139211775309</v>
+        <v>0.9744408639633406</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>8881</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4041</v>
+        <v>3896</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17429</v>
+        <v>15788</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0220209781721392</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01001997227808268</v>
+        <v>0.009660610277391244</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04321427353065378</v>
+        <v>0.03914695282099471</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -3394,19 +3394,19 @@
         <v>16117</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9323</v>
+        <v>9540</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25709</v>
+        <v>26102</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02406110587462411</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0139183426815004</v>
+        <v>0.01424304647696448</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03838123659486817</v>
+        <v>0.03896813817451068</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -3415,19 +3415,19 @@
         <v>24998</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16491</v>
+        <v>16317</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36527</v>
+        <v>35279</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02329437279794019</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01536694960195419</v>
+        <v>0.01520491132037871</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03403762942939838</v>
+        <v>0.03287501677240647</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>394431</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>385883</v>
+        <v>387524</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>399271</v>
+        <v>399416</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9779790218278608</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9567857264693463</v>
+        <v>0.9608530471790054</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9899800277219173</v>
+        <v>0.9903393897226087</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>606</v>
@@ -3465,19 +3465,19 @@
         <v>653706</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>644114</v>
+        <v>643721</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>660500</v>
+        <v>660283</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9759388941253759</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9616187634051317</v>
+        <v>0.9610318618254891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9860816573184996</v>
+        <v>0.9857569535230355</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>984</v>
@@ -3486,19 +3486,19 @@
         <v>1048137</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1036608</v>
+        <v>1037856</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1056644</v>
+        <v>1056818</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9767056272020598</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.965962370570602</v>
+        <v>0.9671249832275935</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9846330503980458</v>
+        <v>0.9847950886796213</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>26167</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18017</v>
+        <v>17791</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36228</v>
+        <v>36991</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1182949730192335</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08145158981330883</v>
+        <v>0.08042730741418004</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1637783477153362</v>
+        <v>0.1672257778837314</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -3611,19 +3611,19 @@
         <v>39304</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27786</v>
+        <v>28061</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52543</v>
+        <v>53704</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0424727655010705</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03002645954072868</v>
+        <v>0.03032314843551224</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05677967303192832</v>
+        <v>0.05803415836343077</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -3632,19 +3632,19 @@
         <v>65471</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51490</v>
+        <v>49551</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80891</v>
+        <v>83813</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05710058533338194</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04490722327023668</v>
+        <v>0.04321645412760613</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07054963799004735</v>
+        <v>0.07309759161784958</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>195036</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>184975</v>
+        <v>184212</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>203186</v>
+        <v>203412</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8817050269807665</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8362216522846638</v>
+        <v>0.8327742221162687</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9185484101866913</v>
+        <v>0.9195726925858201</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>833</v>
@@ -3682,19 +3682,19 @@
         <v>886081</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>872842</v>
+        <v>871681</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>897599</v>
+        <v>897324</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9575272344989295</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.943220326968072</v>
+        <v>0.9419658416365694</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.969973540459272</v>
+        <v>0.9696768515644879</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1026</v>
@@ -3703,19 +3703,19 @@
         <v>1081117</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1065697</v>
+        <v>1062775</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1095098</v>
+        <v>1097037</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9428994146666181</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9294503620099526</v>
+        <v>0.9269024083821505</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9550927767297632</v>
+        <v>0.9567835458723939</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>96430</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>79498</v>
+        <v>75512</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>119099</v>
+        <v>117526</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03311683700388358</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02730196005287864</v>
+        <v>0.02593311253095444</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04090227457950109</v>
+        <v>0.04036214463618802</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>105</v>
@@ -3828,19 +3828,19 @@
         <v>112940</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93614</v>
+        <v>91653</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>135801</v>
+        <v>132964</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03594226701471658</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02979199801164262</v>
+        <v>0.02916784170010834</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04321778249062136</v>
+        <v>0.04231476920998339</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>195</v>
@@ -3849,19 +3849,19 @@
         <v>209369</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>179801</v>
+        <v>179653</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>241039</v>
+        <v>239005</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03458332908730966</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02969919018473428</v>
+        <v>0.02967473060869321</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03981440152943427</v>
+        <v>0.03947851714044519</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2815370</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2792701</v>
+        <v>2794274</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2832302</v>
+        <v>2836288</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9668831629961164</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.959097725420499</v>
+        <v>0.9596378553638122</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9726980399471215</v>
+        <v>0.9740668874690458</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2806</v>
@@ -3899,19 +3899,19 @@
         <v>3029317</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3006456</v>
+        <v>3009293</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3048643</v>
+        <v>3050604</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9640577329852834</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9567822175093786</v>
+        <v>0.9576852307900166</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9702080019883573</v>
+        <v>0.9708321582998917</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5449</v>
@@ -3920,19 +3920,19 @@
         <v>5844688</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5813018</v>
+        <v>5815052</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5874256</v>
+        <v>5874404</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9654166709126903</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9601855984705656</v>
+        <v>0.9605214828595547</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9703008098152657</v>
+        <v>0.9703252693913066</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>5343</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12066</v>
+        <v>12231</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01378454728873966</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005159667219797607</v>
+        <v>0.00514261378543</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03112768512773817</v>
+        <v>0.03155497621106499</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -4287,19 +4287,19 @@
         <v>10378</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4679</v>
+        <v>4871</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19115</v>
+        <v>19612</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03285996313858341</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01481422460855103</v>
+        <v>0.01542348535126776</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06052535111311807</v>
+        <v>0.06209868688620338</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -4308,19 +4308,19 @@
         <v>15721</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8872</v>
+        <v>8754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26046</v>
+        <v>25717</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02234875746199405</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01261229951947102</v>
+        <v>0.01244468479939232</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03702728289552901</v>
+        <v>0.03655920189912887</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>382271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>375548</v>
+        <v>375383</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>385614</v>
+        <v>385621</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9862154527112603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9688723148722619</v>
+        <v>0.9684450237889344</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9948403327802025</v>
+        <v>0.99485738621457</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>295</v>
@@ -4358,19 +4358,19 @@
         <v>305438</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>296701</v>
+        <v>296204</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311137</v>
+        <v>310945</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9671400368614166</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9394746488868818</v>
+        <v>0.9379013131137967</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.985185775391449</v>
+        <v>0.9845765146487322</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>650</v>
@@ -4379,19 +4379,19 @@
         <v>687709</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>677384</v>
+        <v>677713</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>694558</v>
+        <v>694676</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9776512425380059</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9629727171044709</v>
+        <v>0.9634407981008711</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9873877004805288</v>
+        <v>0.9875553152006076</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>10553</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5453</v>
+        <v>5045</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18500</v>
+        <v>18970</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03332740952090029</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0172216513608256</v>
+        <v>0.01593152965401416</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0584213138249471</v>
+        <v>0.05990761555318474</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -4504,19 +4504,19 @@
         <v>10225</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5602</v>
+        <v>5084</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19745</v>
+        <v>18071</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03065207747262708</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01679389990803842</v>
+        <v>0.0152408723477225</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05919192140346515</v>
+        <v>0.05417240470701783</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -4525,19 +4525,19 @@
         <v>20778</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13181</v>
+        <v>13178</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31999</v>
+        <v>32096</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03195494240671189</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02027123285237577</v>
+        <v>0.02026728204520331</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04921130745832391</v>
+        <v>0.04936091608600057</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>306105</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>298158</v>
+        <v>297688</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>311205</v>
+        <v>311613</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9666725904790997</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9415786861750528</v>
+        <v>0.9400923844468153</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9827783486391742</v>
+        <v>0.9840684703459858</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>307</v>
@@ -4575,19 +4575,19 @@
         <v>323350</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>313830</v>
+        <v>315504</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>327973</v>
+        <v>328491</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9693479225273729</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9408080785965351</v>
+        <v>0.9458275952929822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9832061000919615</v>
+        <v>0.9847591276522775</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>593</v>
@@ -4596,19 +4596,19 @@
         <v>629454</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>618233</v>
+        <v>618136</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>637051</v>
+        <v>637054</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9680450575932881</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9507886925416761</v>
+        <v>0.9506390839139996</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9797287671476242</v>
+        <v>0.9797327179547968</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>13883</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8064</v>
+        <v>7812</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23375</v>
+        <v>23978</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03426062070741679</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01989968390584338</v>
+        <v>0.01927822593555394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05768541692289498</v>
+        <v>0.05917452602401405</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -4721,19 +4721,19 @@
         <v>4703</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1104</v>
+        <v>1123</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11793</v>
+        <v>11688</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03373143351125851</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00791712638728494</v>
+        <v>0.008058148006829694</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08458600988067172</v>
+        <v>0.08383367783640355</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -4742,19 +4742,19 @@
         <v>18586</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11137</v>
+        <v>10794</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29327</v>
+        <v>28707</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03412515316743923</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02044946468758062</v>
+        <v>0.01981926857955185</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05384641695574736</v>
+        <v>0.0527095130646004</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>391328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>381836</v>
+        <v>381233</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>397147</v>
+        <v>397399</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9657393792925832</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.942314583077105</v>
+        <v>0.940825473975986</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9801003160941566</v>
+        <v>0.9807217740644461</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>125</v>
@@ -4792,19 +4792,19 @@
         <v>134718</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>127628</v>
+        <v>127733</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>138317</v>
+        <v>138298</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9662685664887415</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9154139901193282</v>
+        <v>0.9161663221635965</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9920828736127151</v>
+        <v>0.9919418519931703</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>500</v>
@@ -4813,19 +4813,19 @@
         <v>526047</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>515306</v>
+        <v>515926</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>533496</v>
+        <v>533839</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9658748468325608</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9461535830442527</v>
+        <v>0.9472904869353996</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9795505353124193</v>
+        <v>0.9801807314204481</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>22103</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14272</v>
+        <v>14455</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34015</v>
+        <v>33389</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02513134717637952</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01622783689959536</v>
+        <v>0.01643552734941281</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03867547048915317</v>
+        <v>0.03796307800659695</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -4938,19 +4938,19 @@
         <v>29587</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20556</v>
+        <v>21441</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40954</v>
+        <v>41263</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04325421241454565</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0300516878670276</v>
+        <v>0.03134438108563798</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05987193194541682</v>
+        <v>0.06032398279477634</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -4959,19 +4959,19 @@
         <v>51690</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38630</v>
+        <v>39726</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65674</v>
+        <v>66117</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03305991770853097</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02470657894711903</v>
+        <v>0.0254077001294241</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04200352749924097</v>
+        <v>0.04228709520593906</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>857402</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>845490</v>
+        <v>846116</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>865233</v>
+        <v>865050</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9748686528236205</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9613245295108468</v>
+        <v>0.9620369219934031</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9837721631004043</v>
+        <v>0.9835644726505871</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>633</v>
@@ -5009,19 +5009,19 @@
         <v>654444</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>643077</v>
+        <v>642768</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>663475</v>
+        <v>662590</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9567457875854544</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.940128068054583</v>
+        <v>0.9396760172052236</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9699483121329724</v>
+        <v>0.9686556189143619</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1451</v>
@@ -5030,19 +5030,19 @@
         <v>1511846</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1497862</v>
+        <v>1497419</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1524906</v>
+        <v>1523810</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.966940082291469</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.957996472500759</v>
+        <v>0.9577129047940609</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.975293421052881</v>
+        <v>0.9745922998705759</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>8820</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3962</v>
+        <v>4162</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17362</v>
+        <v>17657</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02074387906511457</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009319400918695682</v>
+        <v>0.00978997384891536</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04083450117889496</v>
+        <v>0.04152989959376966</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -5155,19 +5155,19 @@
         <v>14703</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8296</v>
+        <v>7974</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24566</v>
+        <v>24454</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02637438588218873</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01488041183021004</v>
+        <v>0.01430405838292969</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04406618144472333</v>
+        <v>0.04386558357240131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -5176,19 +5176,19 @@
         <v>23523</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14806</v>
+        <v>15229</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34188</v>
+        <v>35358</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02393819982814325</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0150678586669365</v>
+        <v>0.01549828666728133</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03479163678035399</v>
+        <v>0.03598254217957435</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>416349</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>407807</v>
+        <v>407512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>421207</v>
+        <v>421007</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9792561209348855</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.959165498821105</v>
+        <v>0.9584701004062303</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9906805990813042</v>
+        <v>0.9902100261510847</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>520</v>
@@ -5226,19 +5226,19 @@
         <v>542778</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>532915</v>
+        <v>533027</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>549185</v>
+        <v>549507</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9736256141178112</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9559338185552767</v>
+        <v>0.9561344164275989</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.98511958816979</v>
+        <v>0.9856959416170704</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>921</v>
@@ -5247,19 +5247,19 @@
         <v>959127</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>948462</v>
+        <v>947292</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>967844</v>
+        <v>967421</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9760618001718567</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.965208363219646</v>
+        <v>0.9640174578204258</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9849321413330635</v>
+        <v>0.9845017133327187</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>15063</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9068</v>
+        <v>9064</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23631</v>
+        <v>24679</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06235848889191577</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0375428544204064</v>
+        <v>0.03752343826372812</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09783312673421533</v>
+        <v>0.1021700235921712</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -5372,19 +5372,19 @@
         <v>33480</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23541</v>
+        <v>23356</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46556</v>
+        <v>45868</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04056791616695335</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02852511098222131</v>
+        <v>0.02829994990161041</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05641229386071325</v>
+        <v>0.05557763805418291</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>48</v>
@@ -5393,19 +5393,19 @@
         <v>48543</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37546</v>
+        <v>35927</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>62701</v>
+        <v>63589</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04550163255232915</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03519407384471084</v>
+        <v>0.03367601511120753</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05877264982911348</v>
+        <v>0.05960540106121449</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>226485</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>217917</v>
+        <v>216869</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232480</v>
+        <v>232484</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9376415111080842</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9021668732657852</v>
+        <v>0.8978299764078291</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9624571455795936</v>
+        <v>0.9624765617362719</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>735</v>
@@ -5443,19 +5443,19 @@
         <v>791809</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>778733</v>
+        <v>779421</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>801748</v>
+        <v>801933</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9594320838330467</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9435877061392869</v>
+        <v>0.9444223619458173</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9714748890177787</v>
+        <v>0.9717000500983897</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>950</v>
@@ -5464,19 +5464,19 @@
         <v>1018294</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1004136</v>
+        <v>1003248</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1029291</v>
+        <v>1030910</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9544983674476708</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9412273501708865</v>
+        <v>0.9403945989387854</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9648059261552892</v>
+        <v>0.9663239848887925</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>75765</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>59740</v>
+        <v>61261</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93486</v>
+        <v>95468</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02852900710974421</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02249498728716737</v>
+        <v>0.02306762753223444</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03520177584819571</v>
+        <v>0.03594828073125883</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>101</v>
@@ -5589,19 +5589,19 @@
         <v>103076</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>84171</v>
+        <v>86238</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>123344</v>
+        <v>125583</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03609594103679472</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02947575302912456</v>
+        <v>0.03019952999847652</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04319345873648304</v>
+        <v>0.04397775331634198</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>174</v>
@@ -5610,19 +5610,19 @@
         <v>178841</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>151756</v>
+        <v>152118</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>206377</v>
+        <v>205377</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03244970885310262</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02753542156299028</v>
+        <v>0.02760110944072248</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03744605930534799</v>
+        <v>0.03726451752550003</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2579940</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2562219</v>
+        <v>2560237</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2595965</v>
+        <v>2594444</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9714709928902558</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9647982241518043</v>
+        <v>0.9640517192687412</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9775050127128326</v>
+        <v>0.9769323724677655</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2615</v>
@@ -5660,19 +5660,19 @@
         <v>2752537</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2732269</v>
+        <v>2730030</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2771442</v>
+        <v>2769375</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9639040589632053</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9568065412635169</v>
+        <v>0.956022246683658</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9705242469708755</v>
+        <v>0.9698004700015235</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5065</v>
@@ -5681,19 +5681,19 @@
         <v>5332477</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5304941</v>
+        <v>5305941</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5359562</v>
+        <v>5359200</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9675502911468974</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9625539406946521</v>
+        <v>0.9627354824745006</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9724645784370096</v>
+        <v>0.9723988905592778</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>21367</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13572</v>
+        <v>13772</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32780</v>
+        <v>31276</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03947596356232823</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02507556624384572</v>
+        <v>0.02544495419362782</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06056180956944637</v>
+        <v>0.05778330264215484</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -6048,19 +6048,19 @@
         <v>27131</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19019</v>
+        <v>17487</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38129</v>
+        <v>36290</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05636811150075082</v>
+        <v>0.05636811150075083</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03951396139139681</v>
+        <v>0.03633010987110068</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07921615417098382</v>
+        <v>0.07539608973236565</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -6069,19 +6069,19 @@
         <v>48498</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36835</v>
+        <v>37174</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62795</v>
+        <v>62033</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04742699017986843</v>
+        <v>0.04742699017986842</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03602174097584599</v>
+        <v>0.0363527458386805</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0614079906695353</v>
+        <v>0.06066306705076665</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>519896</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>508483</v>
+        <v>509987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>527691</v>
+        <v>527491</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9605240364376717</v>
+        <v>0.9605240364376716</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9394381904305528</v>
+        <v>0.9422166973578454</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9749244337561528</v>
+        <v>0.9745550458063722</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>642</v>
@@ -6119,19 +6119,19 @@
         <v>454196</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>443198</v>
+        <v>445037</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>462308</v>
+        <v>463840</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9436318884992489</v>
+        <v>0.9436318884992493</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9207838458290163</v>
+        <v>0.9246039102676344</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9604860386086035</v>
+        <v>0.9636698901288995</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1166</v>
@@ -6140,19 +6140,19 @@
         <v>974092</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>959795</v>
+        <v>960557</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>985755</v>
+        <v>985416</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9525730098201316</v>
+        <v>0.9525730098201317</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.938592009330464</v>
+        <v>0.9393369329492333</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.963978259024154</v>
+        <v>0.9636472541613192</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>14138</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7088</v>
+        <v>7604</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24250</v>
+        <v>24603</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02949488170959915</v>
+        <v>0.02949488170959914</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01478674787214913</v>
+        <v>0.01586412680089169</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05059190019176637</v>
+        <v>0.05132707536994473</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -6265,19 +6265,19 @@
         <v>17387</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11370</v>
+        <v>10845</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27530</v>
+        <v>27517</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04160301753768431</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02720592005298823</v>
+        <v>0.02595065603050704</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06587347399281533</v>
+        <v>0.06584340974566832</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -6286,19 +6286,19 @@
         <v>31525</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21867</v>
+        <v>21490</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45202</v>
+        <v>45112</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03513458095927861</v>
+        <v>0.0351345809592786</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02437050637228913</v>
+        <v>0.02395032787190831</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05037808689175344</v>
+        <v>0.05027772152341315</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>465194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455082</v>
+        <v>454729</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>472244</v>
+        <v>471728</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9705051182904011</v>
+        <v>0.970505118290401</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9494080998082339</v>
+        <v>0.9486729246300551</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.985213252127851</v>
+        <v>0.9841358731991082</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>561</v>
@@ -6336,19 +6336,19 @@
         <v>400533</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>390390</v>
+        <v>390403</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>406550</v>
+        <v>407075</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9583969824623156</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9341265260071844</v>
+        <v>0.9341565902543316</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9727940799470115</v>
+        <v>0.9740493439694929</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1026</v>
@@ -6357,19 +6357,19 @@
         <v>865728</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>852051</v>
+        <v>852141</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>875386</v>
+        <v>875763</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9648654190407214</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9496219131082465</v>
+        <v>0.949722278476587</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.975629493627711</v>
+        <v>0.9760496721280917</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>17882</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10310</v>
+        <v>9868</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32125</v>
+        <v>31856</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03855073422326413</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02222679971258561</v>
+        <v>0.02127346769769064</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06925525699381906</v>
+        <v>0.06867529829179618</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -6482,19 +6482,19 @@
         <v>5959</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3024</v>
+        <v>2931</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11317</v>
+        <v>10702</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03224224511268869</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01635860867095667</v>
+        <v>0.01585689306227958</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0612291332176577</v>
+        <v>0.05790333410662825</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -6503,19 +6503,19 @@
         <v>23842</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14989</v>
+        <v>15398</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36742</v>
+        <v>37718</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03675326191452114</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02310594799570915</v>
+        <v>0.02373740333145147</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05664009553705295</v>
+        <v>0.05814342340075576</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>445983</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>431740</v>
+        <v>432009</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>453555</v>
+        <v>453997</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9614492657767358</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9307447430061815</v>
+        <v>0.9313247017082039</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9777732002874145</v>
+        <v>0.9787265323023095</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>276</v>
@@ -6553,19 +6553,19 @@
         <v>178874</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>173516</v>
+        <v>174131</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>181809</v>
+        <v>181902</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9677577548873111</v>
+        <v>0.9677577548873113</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9387708667823425</v>
+        <v>0.9420966658933723</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9836413913290437</v>
+        <v>0.9841431069377206</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>739</v>
@@ -6574,19 +6574,19 @@
         <v>624856</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>611956</v>
+        <v>610980</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>633709</v>
+        <v>633300</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9632467380854789</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9433599044629469</v>
+        <v>0.9418565765992443</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9768940520042909</v>
+        <v>0.9762625966685484</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>34249</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21765</v>
+        <v>23304</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49185</v>
+        <v>51683</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03125802491436094</v>
+        <v>0.03125802491436095</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01986431593641338</v>
+        <v>0.02126865340102927</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04488928156584103</v>
+        <v>0.04716855558378065</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -6699,19 +6699,19 @@
         <v>43973</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31641</v>
+        <v>33120</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57896</v>
+        <v>57681</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05254977681410798</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03781177173198039</v>
+        <v>0.03957986963430522</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06918821514026034</v>
+        <v>0.0689315807387183</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -6720,19 +6720,19 @@
         <v>78223</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62444</v>
+        <v>61582</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99475</v>
+        <v>98322</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04047760174663083</v>
+        <v>0.04047760174663084</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03231275257415828</v>
+        <v>0.03186689007330078</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05147505414581858</v>
+        <v>0.05087825362215679</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1061450</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1046514</v>
+        <v>1044016</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1073934</v>
+        <v>1072395</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9687419750856392</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9551107184341591</v>
+        <v>0.9528314444162183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9801356840635868</v>
+        <v>0.9787313465989705</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1145</v>
@@ -6770,19 +6770,19 @@
         <v>792817</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>778894</v>
+        <v>779109</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>805149</v>
+        <v>803670</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.947450223185892</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9308117848597398</v>
+        <v>0.9310684192612811</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9621882282680196</v>
+        <v>0.9604201303656948</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2201</v>
@@ -6791,19 +6791,19 @@
         <v>1854266</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1833014</v>
+        <v>1834167</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1870045</v>
+        <v>1870907</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.959522398253369</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9485249458541812</v>
+        <v>0.9491217463778433</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9676872474258417</v>
+        <v>0.9681331099266994</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>14839</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6576</v>
+        <v>6994</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32738</v>
+        <v>32124</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02910485475795028</v>
+        <v>0.02910485475795029</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01289836480882993</v>
+        <v>0.01371783138215191</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0642105980051899</v>
+        <v>0.06300719167878595</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -6916,19 +6916,19 @@
         <v>24283</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16394</v>
+        <v>17227</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32628</v>
+        <v>33430</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03060159401964439</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02066064674530282</v>
+        <v>0.02171024687832064</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04111945034884383</v>
+        <v>0.04212905076513853</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -6937,19 +6937,19 @@
         <v>39122</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26835</v>
+        <v>27455</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56650</v>
+        <v>55720</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03001609658534811</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02058892348211625</v>
+        <v>0.02106493433058736</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04346511311176011</v>
+        <v>0.04275159674193058</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>495009</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>477110</v>
+        <v>477724</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>503272</v>
+        <v>502854</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9708951452420496</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.935789401994811</v>
+        <v>0.936992808321214</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9871016351911704</v>
+        <v>0.9862821686178481</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1202</v>
@@ -6987,19 +6987,19 @@
         <v>769222</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>760877</v>
+        <v>760075</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>777111</v>
+        <v>776278</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9693984059803555</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9588805496511563</v>
+        <v>0.9578709492348614</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9793393532546972</v>
+        <v>0.9782897531216794</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1687</v>
@@ -7008,19 +7008,19 @@
         <v>1264231</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1246703</v>
+        <v>1247633</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1276518</v>
+        <v>1275898</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9699839034146519</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.95653488688824</v>
+        <v>0.9572484032580694</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9794110765178836</v>
+        <v>0.9789350656694128</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>10373</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2997</v>
+        <v>3232</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22788</v>
+        <v>22714</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04594217866328467</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01327453224203858</v>
+        <v>0.01431421270477437</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1009261140900284</v>
+        <v>0.1005975833986587</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -7133,19 +7133,19 @@
         <v>28938</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17561</v>
+        <v>18873</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44472</v>
+        <v>46116</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03534454446567577</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02144864673473133</v>
+        <v>0.0230515607066126</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05431716899671007</v>
+        <v>0.05632571553005008</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -7154,19 +7154,19 @@
         <v>39311</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24754</v>
+        <v>26256</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58273</v>
+        <v>57735</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03763534447726126</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02369900136082151</v>
+        <v>0.02513622457065432</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05578844029384218</v>
+        <v>0.05527373434585949</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>215414</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>202999</v>
+        <v>203073</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>222790</v>
+        <v>222555</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9540578213367156</v>
+        <v>0.9540578213367152</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8990738859099715</v>
+        <v>0.8994024166013413</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9867254677579614</v>
+        <v>0.9856857872952257</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1103</v>
@@ -7204,19 +7204,19 @@
         <v>789804</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>774270</v>
+        <v>772626</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>801181</v>
+        <v>799869</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9646554555343242</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9456828310032901</v>
+        <v>0.9436742844699513</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9785513532652687</v>
+        <v>0.9769484392933876</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1203</v>
@@ -7225,19 +7225,19 @@
         <v>1005218</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>986256</v>
+        <v>986794</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1019775</v>
+        <v>1018273</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9623646555227389</v>
+        <v>0.9623646555227388</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9442115597061583</v>
+        <v>0.9447262656541404</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9763009986391787</v>
+        <v>0.9748637754293457</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>112849</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>90519</v>
+        <v>90477</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>140853</v>
+        <v>139854</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03403367084897076</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02729934783011619</v>
+        <v>0.02728662880349695</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04247940962264563</v>
+        <v>0.04217811770621253</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>176</v>
@@ -7350,19 +7350,19 @@
         <v>147671</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>122710</v>
+        <v>127004</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>172023</v>
+        <v>174206</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.0417963405273729</v>
+        <v>0.04179634052737289</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03473147111746917</v>
+        <v>0.03594662730226212</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0486887592649432</v>
+        <v>0.04930670306150287</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>266</v>
@@ -7371,19 +7371,19 @@
         <v>260520</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>228989</v>
+        <v>229189</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>297287</v>
+        <v>298608</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03803816405246604</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03343430197728338</v>
+        <v>0.03346360517996173</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04340643945882135</v>
+        <v>0.04359929171409284</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3202946</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3174942</v>
+        <v>3175941</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3225276</v>
+        <v>3225318</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9659663291510294</v>
+        <v>0.9659663291510292</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9575205903773546</v>
+        <v>0.9578218822937874</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9727006521698839</v>
+        <v>0.9727133711965031</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4929</v>
@@ -7421,19 +7421,19 @@
         <v>3385447</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3361095</v>
+        <v>3358912</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3410408</v>
+        <v>3406114</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9582036594726271</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9513112407350566</v>
+        <v>0.9506932969384971</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9652685288825301</v>
+        <v>0.9640533726977378</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8022</v>
@@ -7442,19 +7442,19 @@
         <v>6588393</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6551626</v>
+        <v>6550305</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6619924</v>
+        <v>6619724</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9619618359475339</v>
+        <v>0.961961835947534</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9565935605411785</v>
+        <v>0.9564007082859073</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9665656980227166</v>
+        <v>0.9665363948200382</v>
       </c>
     </row>
     <row r="24">
